--- a/02_MasterWifoMannheim/99_Backup/Course108.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course108.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159CFA0317295EA58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71D7D1FB-A524-49E4-A388-EE0FAEEC30FF}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 633 Entrepreneurial Spirit</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>You do not think inside the box and love working on challenging projects? Next to studying, you are eager to apply your knowledge in the real world and learn from startup teams on the project? You like new ideas and love their execution? You want to dive deeper into the anatomy of business models and get the unit economics right? Then you should opt for Entrepreneurial Spirit. The course is a new format to foster startup growth, entrepreneurial culture and to advance the startup ecosystem at and around the University of With their expertise, the students support the startups in improving their products, services and business models and help them to be more competitive. We will work with real companies in this course and you will actively contribute to their growth. Thus, high There are two tracks in MAN 633: One for students who have no startup project yet and one for students (individual or founding team) who work on their own advanced startup project. MAN 633 helps to advance startups in our network by sending students teams as a task force (Inside the Venture Track) but also helps students with an advanced startup idea to reach their next milestones and gain support in a course format (Own Venture Track). is the same for both tracks and provides hands-on tools to assess, structure and solve startup challenges. The workshop part is concluded with an exam (20%). Following this educational element, the students form interdisciplinary teams of 3-5 and solve challenges in real ventures. Experienced MCEI coaches will work closely with the student consulting teams to make sure that they are on track to maximize their learning experience while simultaneously permitting the teams to have as much fun as possible. Inside the Venture Track (for students with no own startup) Offers students who have no own startup but want to experience the startup world an excellent opportunity to work at eye-level with an experienced real-world startup team. The concept: Solving challenges of young companies with student approaches and on-site by student teams. Assisted by an experienced MCEI coach, the students carry out joint projects with the startup after a needs analysis. The startups are recruited via our extensive network. The projects have a mid-term presentation (20%), end presentation (20%) and a final managerial report (40%). Own Venture Track (for students who already work on their advanced startup project) Further advance your own startup in class. Your performance appraisal will be according to milestones set at the beginning of class and you will receive continuous counseling by MCEI coaches. MAN 633 offers you the opportunity to recruit a student team from class to work on your startup’s challenges during the course just like in our “client companies” in the Inside the Venture Track. whether your startup project is eligible for our Own Venture Track. This offer is for advanced startup projects only – you can start greenfield (i.e., at idea stage) in MAN 631. The projects have a mid-term presentation (20%), end presentation (20%) and a final managerial report with continuous status updates (40%). The direct integration of the students into the startups within the framework of the course enables a joint action-oriented learning experience on both sides. In addition, we strengthen the startup community, promote startup companies and potential startups, integrate startups directly into the university's offerings and support the transfer of knowledge and technology between the university and the economy.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will learn tools to analyze and develop business models and how to tweak them towards growth. They solve real-life challenges in new ventures in a project format and learn first-hand what it is like to work in a startup by gaining real startup experience. (temporally) part of a startup team, they will acquire managerial skills and gain familiarity with problem solving in practice. Team work experience, profound presentation and consulting skills are also core learning outcomes of this class.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>yes, in the kick-off meeting (see course website)</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:http://www.mcei.de/teaching</t>
-  </si>
-  <si>
-    <t>Courses Hours Self-study per week Lecture 2 12</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>20% Written exam (individual) 20% Mid-term presentation (team) 20% Final presentation (team) 40% Final managerial report (team)</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Thomas Hipp, Nora Zybura, Dr. Bettina Müller</t>
-  </si>
-  <si>
-    <t>Preliminary course work</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester, Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>MAN 630, MAN 631, MAN 632</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 633 Entrepreneurial Spirit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>You do not think inside the box and love working on challenging projects? Next to studying, you are eager to apply your knowledge in the real world and learn from startup teams on the project? You like new ideas and love their execution? You want to dive deeper into the anatomy of business models and get the unit economics right? Then you should opt for Entrepreneurial Spirit. The course is a new format to foster startup growth, entrepreneurial culture and to advance the startup ecosystem at and around the University of With their expertise, the students support the startups in improving their products, services and business models and help them to be more competitive. We will work with real companies in this course and you will actively contribute to their growth. Thus, high There are two tracks in MAN 633: One for students who have no startup project yet and one for students (individual or founding team) who work on their own advanced startup project. MAN 633 helps to advance startups in our network by sending students teams as a task force (Inside the Venture Track) but also helps students with an advanced startup idea to reach their next milestones and gain support in a course format (Own Venture Track). is the same for both tracks and provides hands-on tools to assess, structure and solve startup challenges. The workshop part is concluded with an exam (20%). Following this educational element, the students form interdisciplinary teams of 3-5 and solve challenges in real ventures. Experienced MCEI coaches will work closely with the student consulting teams to make sure that they are on track to maximize their learning experience while simultaneously permitting the teams to have as much fun as possible. Inside the Venture Track (for students with no own startup) Offers students who have no own startup but want to experience the startup world an excellent opportunity to work at eye-level with an experienced real-world startup team. The concept: Solving challenges of young companies with student approaches and on-site by student teams. Assisted by an experienced MCEI coach, the students carry out joint projects with the startup after a needs analysis. The startups are recruited via our extensive network. The projects have a mid-term presentation (20%), end presentation (20%) and a final managerial report (40%). Own Venture Track (for students who already work on their advanced startup project) Further advance your own startup in class. Your performance appraisal will be according to milestones set at the beginning of class and you will receive continuous counseling by MCEI coaches. MAN 633 offers you the opportunity to recruit a student team from class to work on your startup’s challenges during the course just like in our “client companies” in the Inside the Venture Track. whether your startup project is eligible for our Own Venture Track. This offer is for advanced startup projects only – you can start greenfield (i.e., at idea stage) in MAN 631. The projects have a mid-term presentation (20%), end presentation (20%) and a final managerial report with continuous status updates (40%). The direct integration of the students into the startups within the framework of the course enables a joint action-oriented learning experience on both sides. In addition, we strengthen the startup community, promote startup companies and potential startups, integrate startups directly into the university's offerings and support the transfer of knowledge and technology between the university and the economy.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will learn tools to analyze and develop business models and how to tweak them towards growth. They solve real-life challenges in new ventures in a project format and learn first-hand what it is like to work in a startup by gaining real startup experience. (temporally) part of a startup team, they will acquire managerial skills and gain familiarity with problem solving in practice. Team work experience, profound presentation and consulting skills are also core learning outcomes of this class.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAN 630, MAN 631, MAN 632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>yes, in the kick-off meeting (see course website)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:http://www.mcei.de/teaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours Self-study per week Lecture 2 12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20% Written exam (individual) 20% Mid-term presentation (team) 20% Final presentation (team) 40% Final managerial report (team)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Thomas Hipp, Nora Zybura, Dr. Bettina Müller</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Continuously</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
